--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'questionId': '59c333037f1008310d8b4567'}</t>
+    <t>{'questionId':59c333037f1008310d8b4567}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +185,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,7 +470,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +524,7 @@
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">

--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3765" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>NO.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual_Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -49,35 +37,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://test.anxinyisheng.com/home/question/detailQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"questionId":"59c333037f1008310d8b4567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Check_Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resCode": 200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test.anxinyisheng.com/home/question/detailQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'questionId':59c333037f1008310d8b4567}</t>
+    <t>Actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +185,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,111 +481,113 @@
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
+      <c r="F2" s="6">
+        <v>200</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="D16" s="10"/>
     </row>
@@ -611,5 +613,6 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4695" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -41,43 +41,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"questionId":"59c333037f1008310d8b45678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"questionId":"59c333037f1008310d8b4567"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,40 +472,30 @@
     <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -527,67 +509,81 @@
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="D16" s="10"/>
     </row>
@@ -611,8 +607,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12135" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,57 +19,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>问题详情页</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://test.anxinyisheng.com/home/question/detailQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Check_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"questionId":"59c333037f1008310d8b45678"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"questionId":"59c333037f1008310d8b4567"}</t>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aid":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aid":"694325928930578432"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aid":"692902340864249856"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aid":"708491325128839168"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aid":"7084913277779168"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.10.90.245:8076/bms/api/account/getAccountByAid</t>
+  </si>
+  <si>
+    <t>getAccountByAid_健康用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAccountByAid_Ai用户</t>
+  </si>
+  <si>
+    <t>getAccountByAid_主站用户</t>
+  </si>
+  <si>
+    <t>getAccountByAid_aid为空</t>
+  </si>
+  <si>
+    <t>getAccountByAid_aid不存在</t>
+  </si>
+  <si>
+    <t>http://10.10.90.245:8076/bms/api/user/getAccountByUid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,29 +120,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,29 +171,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,157 +466,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F5" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="D20" s="10"/>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
+    <hyperlink ref="C5" r:id="rId4" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15855" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,46 +45,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"aid":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"aid":"694325928930578432"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"aid":"692902340864249856"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"aid":"708491325128839168"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"aid":"7084913277779168"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.10.90.245:8076/bms/api/account/getAccountByAid</t>
-  </si>
-  <si>
-    <t>getAccountByAid_健康用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAccountByAid_Ai用户</t>
-  </si>
-  <si>
-    <t>getAccountByAid_主站用户</t>
-  </si>
-  <si>
-    <t>getAccountByAid_aid为空</t>
-  </si>
-  <si>
-    <t>getAccountByAid_aid不存在</t>
-  </si>
-  <si>
-    <t>http://10.10.90.245:8076/bms/api/user/getAccountByUid</t>
+    <t>getPatientById_健康用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPatientById_Ai用户</t>
+  </si>
+  <si>
+    <t>http://10.10.90.245:8076/bms/api/patient/getPatientsByIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pids":"5b08fe8f7f10089b208b47c9,5b08fe8f7f10089b208b47c9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.10.90.245:8076/bms/api/patient/getPatientById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pid":"5b45ce68f47fb3261b8b4579"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +172,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -466,19 +457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,19 +478,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -507,16 +498,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5">
         <v>200</v>
@@ -527,16 +518,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -547,81 +538,57 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="5"/>
@@ -842,80 +809,14 @@
       <c r="E36" s="9"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
-    <hyperlink ref="C6" r:id="rId5" display="http://10.10.90.245:8076/bms/api/account/getMajorPidByAid"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestCase/case.xlsx
+++ b/TestCase/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="16785" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,30 +45,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getPatientById_健康用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPatientById_Ai用户</t>
-  </si>
-  <si>
-    <t>http://10.10.90.245:8076/bms/api/patient/getPatientsByIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pids":"5b08fe8f7f10089b208b47c9,5b08fe8f7f10089b208b47c9"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.10.90.245:8076/bms/api/patient/getPatientById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pid":"5b45ce68f47fb3261b8b4579"}</t>
+    <t>http://10.10.90.245:8076/bms/api/user/getUserByUidChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.10.90.245:8076/bms/api/user/getUserByUidChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_健康用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_Ai用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_主站用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_Uid为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_渠道和Uid均为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b08fe587f100879738b494b","channel":"wx_anxinjiankang"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b03d0867f10089d458b4705","channel":"wx_anxinjiankang"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b3c86e6f47fb383728b4577","channel":"wx_anxinjiankang"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b08fe587f100879738b494b","channel":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"","channel":"wx_anxinjiankang"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"","channel":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,7 +101,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hs</t>
+    <t>getUserByUidChannel_channel为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_Uid不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b08fe587f10087973dd494b","channel":"wx_anxinjiankang"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserByUidChannel_channel错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5b08fe587f100879738b494b","channel":"wx_ansinjiankang"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,7 +216,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,7 +500,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +509,7 @@
     <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5">
         <v>200</v>
@@ -518,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -538,60 +578,120 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -813,10 +913,12 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3:C7" r:id="rId2" display="http://10.10.90.245:8076/bms/api/user/getUserByUidChannel"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>